--- a/Team-Data/2007-08/2-14-2007-08.xlsx
+++ b/Team-Data/2007-08/2-14-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -795,10 +862,10 @@
         <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
@@ -1165,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.404</v>
+        <v>0.392</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,13 +1303,13 @@
         <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
@@ -1251,16 +1318,16 @@
         <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
         <v>13.5</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
@@ -1278,31 +1345,31 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>13</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>14</v>
@@ -1356,13 +1423,13 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
         <v>35</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.66</v>
+        <v>0.673</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,10 +1661,10 @@
         <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
         <v>5.7</v>
@@ -1606,28 +1673,28 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O7" t="n">
         <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>42.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
         <v>12.6</v>
@@ -1651,28 +1718,28 @@
         <v>99.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
@@ -1696,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
@@ -1705,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2412,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2573,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2970,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3238,37 +3305,37 @@
         <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="O16" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U16" t="n">
         <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.3</v>
@@ -3283,16 +3350,16 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>26</v>
@@ -3322,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP16" t="n">
         <v>16</v>
@@ -3337,16 +3404,16 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
@@ -3361,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4095,7 +4162,7 @@
         <v>8</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4232,7 +4299,7 @@
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4274,7 +4341,7 @@
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4611,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
         <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>0.698</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,40 +4755,40 @@
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.383</v>
       </c>
       <c r="O24" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R24" t="n">
         <v>8.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V24" t="n">
         <v>13.8</v>
@@ -4736,7 +4803,7 @@
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.1</v>
@@ -4745,10 +4812,10 @@
         <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4817,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5303,7 +5370,7 @@
         <v>5</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>22</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5542,7 +5609,7 @@
         <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-14-2007-08</t>
+          <t>2008-02-14</t>
         </is>
       </c>
     </row>
